--- a/greyscale_hash_code.xlsx
+++ b/greyscale_hash_code.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2338,6 +2338,1906 @@
         <v>1189</v>
       </c>
     </row>
+    <row r="22" spans="1:31">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1538</v>
+      </c>
+      <c r="C22">
+        <v>1551</v>
+      </c>
+      <c r="D22">
+        <v>1301</v>
+      </c>
+      <c r="E22">
+        <v>1220</v>
+      </c>
+      <c r="F22">
+        <v>1585</v>
+      </c>
+      <c r="G22">
+        <v>1576</v>
+      </c>
+      <c r="H22">
+        <v>1460</v>
+      </c>
+      <c r="I22">
+        <v>1521</v>
+      </c>
+      <c r="J22">
+        <v>1471</v>
+      </c>
+      <c r="K22">
+        <v>850</v>
+      </c>
+      <c r="L22">
+        <v>1346</v>
+      </c>
+      <c r="M22">
+        <v>1569</v>
+      </c>
+      <c r="N22">
+        <v>1396</v>
+      </c>
+      <c r="O22">
+        <v>1309</v>
+      </c>
+      <c r="P22">
+        <v>1434</v>
+      </c>
+      <c r="Q22">
+        <v>1359</v>
+      </c>
+      <c r="R22">
+        <v>1348</v>
+      </c>
+      <c r="S22">
+        <v>1579</v>
+      </c>
+      <c r="T22">
+        <v>1275</v>
+      </c>
+      <c r="U22">
+        <v>1435</v>
+      </c>
+      <c r="V22">
+        <v>1395</v>
+      </c>
+      <c r="W22">
+        <v>1434</v>
+      </c>
+      <c r="X22">
+        <v>1514</v>
+      </c>
+      <c r="Y22">
+        <v>1242</v>
+      </c>
+      <c r="Z22">
+        <v>1132</v>
+      </c>
+      <c r="AA22">
+        <v>1540</v>
+      </c>
+      <c r="AB22">
+        <v>1299</v>
+      </c>
+      <c r="AC22">
+        <v>1541</v>
+      </c>
+      <c r="AD22">
+        <v>1397</v>
+      </c>
+      <c r="AE22">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1248</v>
+      </c>
+      <c r="C23">
+        <v>1571</v>
+      </c>
+      <c r="D23">
+        <v>1013</v>
+      </c>
+      <c r="E23">
+        <v>1038</v>
+      </c>
+      <c r="F23">
+        <v>1754</v>
+      </c>
+      <c r="G23">
+        <v>1437</v>
+      </c>
+      <c r="H23">
+        <v>1272</v>
+      </c>
+      <c r="I23">
+        <v>1457</v>
+      </c>
+      <c r="J23">
+        <v>1089</v>
+      </c>
+      <c r="K23">
+        <v>1169</v>
+      </c>
+      <c r="L23">
+        <v>786</v>
+      </c>
+      <c r="M23">
+        <v>1216</v>
+      </c>
+      <c r="N23">
+        <v>1145</v>
+      </c>
+      <c r="O23">
+        <v>856</v>
+      </c>
+      <c r="P23">
+        <v>1369</v>
+      </c>
+      <c r="Q23">
+        <v>1096</v>
+      </c>
+      <c r="R23">
+        <v>1078</v>
+      </c>
+      <c r="S23">
+        <v>1157</v>
+      </c>
+      <c r="T23">
+        <v>986</v>
+      </c>
+      <c r="U23">
+        <v>1098</v>
+      </c>
+      <c r="V23">
+        <v>1175</v>
+      </c>
+      <c r="W23">
+        <v>1105</v>
+      </c>
+      <c r="X23">
+        <v>1135</v>
+      </c>
+      <c r="Y23">
+        <v>1157</v>
+      </c>
+      <c r="Z23">
+        <v>835</v>
+      </c>
+      <c r="AA23">
+        <v>1115</v>
+      </c>
+      <c r="AB23">
+        <v>864</v>
+      </c>
+      <c r="AC23">
+        <v>1153</v>
+      </c>
+      <c r="AD23">
+        <v>1030</v>
+      </c>
+      <c r="AE23">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1355</v>
+      </c>
+      <c r="C24">
+        <v>2216</v>
+      </c>
+      <c r="D24">
+        <v>690</v>
+      </c>
+      <c r="E24">
+        <v>794</v>
+      </c>
+      <c r="F24">
+        <v>1680</v>
+      </c>
+      <c r="G24">
+        <v>1867</v>
+      </c>
+      <c r="H24">
+        <v>772</v>
+      </c>
+      <c r="I24">
+        <v>1595</v>
+      </c>
+      <c r="J24">
+        <v>1068</v>
+      </c>
+      <c r="K24">
+        <v>1583</v>
+      </c>
+      <c r="L24">
+        <v>1205</v>
+      </c>
+      <c r="M24">
+        <v>564</v>
+      </c>
+      <c r="N24">
+        <v>555</v>
+      </c>
+      <c r="O24">
+        <v>1007</v>
+      </c>
+      <c r="P24">
+        <v>808</v>
+      </c>
+      <c r="Q24">
+        <v>1137</v>
+      </c>
+      <c r="R24">
+        <v>791</v>
+      </c>
+      <c r="S24">
+        <v>808</v>
+      </c>
+      <c r="T24">
+        <v>755</v>
+      </c>
+      <c r="U24">
+        <v>802</v>
+      </c>
+      <c r="V24">
+        <v>565</v>
+      </c>
+      <c r="W24">
+        <v>784</v>
+      </c>
+      <c r="X24">
+        <v>811</v>
+      </c>
+      <c r="Y24">
+        <v>1173</v>
+      </c>
+      <c r="Z24">
+        <v>1457</v>
+      </c>
+      <c r="AA24">
+        <v>1111</v>
+      </c>
+      <c r="AB24">
+        <v>1206</v>
+      </c>
+      <c r="AC24">
+        <v>1258</v>
+      </c>
+      <c r="AD24">
+        <v>886</v>
+      </c>
+      <c r="AE24">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1563</v>
+      </c>
+      <c r="C25">
+        <v>2119</v>
+      </c>
+      <c r="D25">
+        <v>653</v>
+      </c>
+      <c r="E25">
+        <v>798</v>
+      </c>
+      <c r="F25">
+        <v>1804</v>
+      </c>
+      <c r="G25">
+        <v>1855</v>
+      </c>
+      <c r="H25">
+        <v>1070</v>
+      </c>
+      <c r="I25">
+        <v>1557</v>
+      </c>
+      <c r="J25">
+        <v>1120</v>
+      </c>
+      <c r="K25">
+        <v>1519</v>
+      </c>
+      <c r="L25">
+        <v>1087</v>
+      </c>
+      <c r="M25">
+        <v>872</v>
+      </c>
+      <c r="N25">
+        <v>881</v>
+      </c>
+      <c r="O25">
+        <v>950</v>
+      </c>
+      <c r="P25">
+        <v>1118</v>
+      </c>
+      <c r="Q25">
+        <v>1225</v>
+      </c>
+      <c r="R25">
+        <v>925</v>
+      </c>
+      <c r="S25">
+        <v>839</v>
+      </c>
+      <c r="T25">
+        <v>843</v>
+      </c>
+      <c r="U25">
+        <v>703</v>
+      </c>
+      <c r="V25">
+        <v>904</v>
+      </c>
+      <c r="W25">
+        <v>674</v>
+      </c>
+      <c r="X25">
+        <v>1020</v>
+      </c>
+      <c r="Y25">
+        <v>1319</v>
+      </c>
+      <c r="Z25">
+        <v>1491</v>
+      </c>
+      <c r="AA25">
+        <v>967</v>
+      </c>
+      <c r="AB25">
+        <v>1335</v>
+      </c>
+      <c r="AC25">
+        <v>1271</v>
+      </c>
+      <c r="AD25">
+        <v>847</v>
+      </c>
+      <c r="AE25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1504</v>
+      </c>
+      <c r="C26">
+        <v>2131</v>
+      </c>
+      <c r="D26">
+        <v>646</v>
+      </c>
+      <c r="E26">
+        <v>776</v>
+      </c>
+      <c r="F26">
+        <v>1742</v>
+      </c>
+      <c r="G26">
+        <v>1958</v>
+      </c>
+      <c r="H26">
+        <v>1034</v>
+      </c>
+      <c r="I26">
+        <v>1586</v>
+      </c>
+      <c r="J26">
+        <v>933</v>
+      </c>
+      <c r="K26">
+        <v>1576</v>
+      </c>
+      <c r="L26">
+        <v>1327</v>
+      </c>
+      <c r="M26">
+        <v>868</v>
+      </c>
+      <c r="N26">
+        <v>736</v>
+      </c>
+      <c r="O26">
+        <v>915</v>
+      </c>
+      <c r="P26">
+        <v>1004</v>
+      </c>
+      <c r="Q26">
+        <v>955</v>
+      </c>
+      <c r="R26">
+        <v>760</v>
+      </c>
+      <c r="S26">
+        <v>878</v>
+      </c>
+      <c r="T26">
+        <v>817</v>
+      </c>
+      <c r="U26">
+        <v>932</v>
+      </c>
+      <c r="V26">
+        <v>770</v>
+      </c>
+      <c r="W26">
+        <v>882</v>
+      </c>
+      <c r="X26">
+        <v>914</v>
+      </c>
+      <c r="Y26">
+        <v>1173</v>
+      </c>
+      <c r="Z26">
+        <v>1425</v>
+      </c>
+      <c r="AA26">
+        <v>1122</v>
+      </c>
+      <c r="AB26">
+        <v>1151</v>
+      </c>
+      <c r="AC26">
+        <v>1398</v>
+      </c>
+      <c r="AD26">
+        <v>1035</v>
+      </c>
+      <c r="AE26">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1280</v>
+      </c>
+      <c r="C27">
+        <v>2030</v>
+      </c>
+      <c r="D27">
+        <v>1129</v>
+      </c>
+      <c r="E27">
+        <v>1227</v>
+      </c>
+      <c r="F27">
+        <v>1807</v>
+      </c>
+      <c r="G27">
+        <v>1810</v>
+      </c>
+      <c r="H27">
+        <v>830</v>
+      </c>
+      <c r="I27">
+        <v>1559</v>
+      </c>
+      <c r="J27">
+        <v>1152</v>
+      </c>
+      <c r="K27">
+        <v>1513</v>
+      </c>
+      <c r="L27">
+        <v>1232</v>
+      </c>
+      <c r="M27">
+        <v>932</v>
+      </c>
+      <c r="N27">
+        <v>856</v>
+      </c>
+      <c r="O27">
+        <v>1195</v>
+      </c>
+      <c r="P27">
+        <v>1105</v>
+      </c>
+      <c r="Q27">
+        <v>1239</v>
+      </c>
+      <c r="R27">
+        <v>1072</v>
+      </c>
+      <c r="S27">
+        <v>1131</v>
+      </c>
+      <c r="T27">
+        <v>1096</v>
+      </c>
+      <c r="U27">
+        <v>1153</v>
+      </c>
+      <c r="V27">
+        <v>918</v>
+      </c>
+      <c r="W27">
+        <v>1174</v>
+      </c>
+      <c r="X27">
+        <v>1010</v>
+      </c>
+      <c r="Y27">
+        <v>1349</v>
+      </c>
+      <c r="Z27">
+        <v>1411</v>
+      </c>
+      <c r="AA27">
+        <v>1302</v>
+      </c>
+      <c r="AB27">
+        <v>1154</v>
+      </c>
+      <c r="AC27">
+        <v>1040</v>
+      </c>
+      <c r="AD27">
+        <v>1190</v>
+      </c>
+      <c r="AE27">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1454</v>
+      </c>
+      <c r="C28">
+        <v>1649</v>
+      </c>
+      <c r="D28">
+        <v>1069</v>
+      </c>
+      <c r="E28">
+        <v>1076</v>
+      </c>
+      <c r="F28">
+        <v>1878</v>
+      </c>
+      <c r="G28">
+        <v>1570</v>
+      </c>
+      <c r="H28">
+        <v>1478</v>
+      </c>
+      <c r="I28">
+        <v>1413</v>
+      </c>
+      <c r="J28">
+        <v>1249</v>
+      </c>
+      <c r="K28">
+        <v>1447</v>
+      </c>
+      <c r="L28">
+        <v>920</v>
+      </c>
+      <c r="M28">
+        <v>1353</v>
+      </c>
+      <c r="N28">
+        <v>1325</v>
+      </c>
+      <c r="O28">
+        <v>1005</v>
+      </c>
+      <c r="P28">
+        <v>1610</v>
+      </c>
+      <c r="Q28">
+        <v>1187</v>
+      </c>
+      <c r="R28">
+        <v>1221</v>
+      </c>
+      <c r="S28">
+        <v>1168</v>
+      </c>
+      <c r="T28">
+        <v>1098</v>
+      </c>
+      <c r="U28">
+        <v>1041</v>
+      </c>
+      <c r="V28">
+        <v>1299</v>
+      </c>
+      <c r="W28">
+        <v>1175</v>
+      </c>
+      <c r="X28">
+        <v>1315</v>
+      </c>
+      <c r="Y28">
+        <v>1273</v>
+      </c>
+      <c r="Z28">
+        <v>1180</v>
+      </c>
+      <c r="AA28">
+        <v>1172</v>
+      </c>
+      <c r="AB28">
+        <v>1171</v>
+      </c>
+      <c r="AC28">
+        <v>1262</v>
+      </c>
+      <c r="AD28">
+        <v>1013</v>
+      </c>
+      <c r="AE28">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1288</v>
+      </c>
+      <c r="C29">
+        <v>2124</v>
+      </c>
+      <c r="D29">
+        <v>856</v>
+      </c>
+      <c r="E29">
+        <v>960</v>
+      </c>
+      <c r="F29">
+        <v>1813</v>
+      </c>
+      <c r="G29">
+        <v>1939</v>
+      </c>
+      <c r="H29">
+        <v>807</v>
+      </c>
+      <c r="I29">
+        <v>1542</v>
+      </c>
+      <c r="J29">
+        <v>1184</v>
+      </c>
+      <c r="K29">
+        <v>1551</v>
+      </c>
+      <c r="L29">
+        <v>1211</v>
+      </c>
+      <c r="M29">
+        <v>747</v>
+      </c>
+      <c r="N29">
+        <v>632</v>
+      </c>
+      <c r="O29">
+        <v>1074</v>
+      </c>
+      <c r="P29">
+        <v>971</v>
+      </c>
+      <c r="Q29">
+        <v>1169</v>
+      </c>
+      <c r="R29">
+        <v>902</v>
+      </c>
+      <c r="S29">
+        <v>921</v>
+      </c>
+      <c r="T29">
+        <v>816</v>
+      </c>
+      <c r="U29">
+        <v>955</v>
+      </c>
+      <c r="V29">
+        <v>739</v>
+      </c>
+      <c r="W29">
+        <v>999</v>
+      </c>
+      <c r="X29">
+        <v>804</v>
+      </c>
+      <c r="Y29">
+        <v>1190</v>
+      </c>
+      <c r="Z29">
+        <v>1332</v>
+      </c>
+      <c r="AA29">
+        <v>1166</v>
+      </c>
+      <c r="AB29">
+        <v>1218</v>
+      </c>
+      <c r="AC29">
+        <v>1168</v>
+      </c>
+      <c r="AD29">
+        <v>988</v>
+      </c>
+      <c r="AE29">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1355</v>
+      </c>
+      <c r="C30">
+        <v>1896</v>
+      </c>
+      <c r="D30">
+        <v>653</v>
+      </c>
+      <c r="E30">
+        <v>729</v>
+      </c>
+      <c r="F30">
+        <v>1788</v>
+      </c>
+      <c r="G30">
+        <v>1655</v>
+      </c>
+      <c r="H30">
+        <v>986</v>
+      </c>
+      <c r="I30">
+        <v>1523</v>
+      </c>
+      <c r="J30">
+        <v>910</v>
+      </c>
+      <c r="K30">
+        <v>1365</v>
+      </c>
+      <c r="L30">
+        <v>1012</v>
+      </c>
+      <c r="M30">
+        <v>955</v>
+      </c>
+      <c r="N30">
+        <v>853</v>
+      </c>
+      <c r="O30">
+        <v>713</v>
+      </c>
+      <c r="P30">
+        <v>1032</v>
+      </c>
+      <c r="Q30">
+        <v>923</v>
+      </c>
+      <c r="R30">
+        <v>778</v>
+      </c>
+      <c r="S30">
+        <v>857</v>
+      </c>
+      <c r="T30">
+        <v>756</v>
+      </c>
+      <c r="U30">
+        <v>905</v>
+      </c>
+      <c r="V30">
+        <v>796</v>
+      </c>
+      <c r="W30">
+        <v>911</v>
+      </c>
+      <c r="X30">
+        <v>976</v>
+      </c>
+      <c r="Y30">
+        <v>982</v>
+      </c>
+      <c r="Z30">
+        <v>1194</v>
+      </c>
+      <c r="AA30">
+        <v>1128</v>
+      </c>
+      <c r="AB30">
+        <v>922</v>
+      </c>
+      <c r="AC30">
+        <v>1270</v>
+      </c>
+      <c r="AD30">
+        <v>897</v>
+      </c>
+      <c r="AE30">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1325</v>
+      </c>
+      <c r="C31">
+        <v>1936</v>
+      </c>
+      <c r="D31">
+        <v>467</v>
+      </c>
+      <c r="E31">
+        <v>601</v>
+      </c>
+      <c r="F31">
+        <v>1568</v>
+      </c>
+      <c r="G31">
+        <v>1699</v>
+      </c>
+      <c r="H31">
+        <v>769</v>
+      </c>
+      <c r="I31">
+        <v>1559</v>
+      </c>
+      <c r="J31">
+        <v>796</v>
+      </c>
+      <c r="K31">
+        <v>1423</v>
+      </c>
+      <c r="L31">
+        <v>1035</v>
+      </c>
+      <c r="M31">
+        <v>629</v>
+      </c>
+      <c r="N31">
+        <v>578</v>
+      </c>
+      <c r="O31">
+        <v>767</v>
+      </c>
+      <c r="P31">
+        <v>792</v>
+      </c>
+      <c r="Q31">
+        <v>900</v>
+      </c>
+      <c r="R31">
+        <v>607</v>
+      </c>
+      <c r="S31">
+        <v>654</v>
+      </c>
+      <c r="T31">
+        <v>564</v>
+      </c>
+      <c r="U31">
+        <v>672</v>
+      </c>
+      <c r="V31">
+        <v>563</v>
+      </c>
+      <c r="W31">
+        <v>602</v>
+      </c>
+      <c r="X31">
+        <v>671</v>
+      </c>
+      <c r="Y31">
+        <v>953</v>
+      </c>
+      <c r="Z31">
+        <v>1203</v>
+      </c>
+      <c r="AA31">
+        <v>919</v>
+      </c>
+      <c r="AB31">
+        <v>995</v>
+      </c>
+      <c r="AC31">
+        <v>1189</v>
+      </c>
+      <c r="AD31">
+        <v>744</v>
+      </c>
+      <c r="AE31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1437</v>
+      </c>
+      <c r="C32">
+        <v>1725</v>
+      </c>
+      <c r="D32">
+        <v>1698</v>
+      </c>
+      <c r="E32">
+        <v>1817</v>
+      </c>
+      <c r="F32">
+        <v>1716</v>
+      </c>
+      <c r="G32">
+        <v>1708</v>
+      </c>
+      <c r="H32">
+        <v>1726</v>
+      </c>
+      <c r="I32">
+        <v>1567</v>
+      </c>
+      <c r="J32">
+        <v>1649</v>
+      </c>
+      <c r="K32">
+        <v>1805</v>
+      </c>
+      <c r="L32">
+        <v>1622</v>
+      </c>
+      <c r="M32">
+        <v>1649</v>
+      </c>
+      <c r="N32">
+        <v>1706</v>
+      </c>
+      <c r="O32">
+        <v>1732</v>
+      </c>
+      <c r="P32">
+        <v>1769</v>
+      </c>
+      <c r="Q32">
+        <v>1776</v>
+      </c>
+      <c r="R32">
+        <v>1723</v>
+      </c>
+      <c r="S32">
+        <v>1697</v>
+      </c>
+      <c r="T32">
+        <v>1921</v>
+      </c>
+      <c r="U32">
+        <v>1775</v>
+      </c>
+      <c r="V32">
+        <v>1631</v>
+      </c>
+      <c r="W32">
+        <v>1650</v>
+      </c>
+      <c r="X32">
+        <v>1681</v>
+      </c>
+      <c r="Y32">
+        <v>1769</v>
+      </c>
+      <c r="Z32">
+        <v>1868</v>
+      </c>
+      <c r="AA32">
+        <v>1614</v>
+      </c>
+      <c r="AB32">
+        <v>1548</v>
+      </c>
+      <c r="AC32">
+        <v>1656</v>
+      </c>
+      <c r="AD32">
+        <v>1870</v>
+      </c>
+      <c r="AE32">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1572</v>
+      </c>
+      <c r="C33">
+        <v>2075</v>
+      </c>
+      <c r="D33">
+        <v>625</v>
+      </c>
+      <c r="E33">
+        <v>684</v>
+      </c>
+      <c r="F33">
+        <v>1792</v>
+      </c>
+      <c r="G33">
+        <v>1838</v>
+      </c>
+      <c r="H33">
+        <v>1124</v>
+      </c>
+      <c r="I33">
+        <v>1594</v>
+      </c>
+      <c r="J33">
+        <v>950</v>
+      </c>
+      <c r="K33">
+        <v>1447</v>
+      </c>
+      <c r="L33">
+        <v>1167</v>
+      </c>
+      <c r="M33">
+        <v>1010</v>
+      </c>
+      <c r="N33">
+        <v>864</v>
+      </c>
+      <c r="O33">
+        <v>806</v>
+      </c>
+      <c r="P33">
+        <v>1083</v>
+      </c>
+      <c r="Q33">
+        <v>962</v>
+      </c>
+      <c r="R33">
+        <v>756</v>
+      </c>
+      <c r="S33">
+        <v>895</v>
+      </c>
+      <c r="T33">
+        <v>838</v>
+      </c>
+      <c r="U33">
+        <v>890</v>
+      </c>
+      <c r="V33">
+        <v>883</v>
+      </c>
+      <c r="W33">
+        <v>860</v>
+      </c>
+      <c r="X33">
+        <v>1008</v>
+      </c>
+      <c r="Y33">
+        <v>1165</v>
+      </c>
+      <c r="Z33">
+        <v>1435</v>
+      </c>
+      <c r="AA33">
+        <v>1112</v>
+      </c>
+      <c r="AB33">
+        <v>1103</v>
+      </c>
+      <c r="AC33">
+        <v>1402</v>
+      </c>
+      <c r="AD33">
+        <v>962</v>
+      </c>
+      <c r="AE33">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1579</v>
+      </c>
+      <c r="C34">
+        <v>1942</v>
+      </c>
+      <c r="D34">
+        <v>1663</v>
+      </c>
+      <c r="E34">
+        <v>1791</v>
+      </c>
+      <c r="F34">
+        <v>1726</v>
+      </c>
+      <c r="G34">
+        <v>1923</v>
+      </c>
+      <c r="H34">
+        <v>1752</v>
+      </c>
+      <c r="I34">
+        <v>1488</v>
+      </c>
+      <c r="J34">
+        <v>1731</v>
+      </c>
+      <c r="K34">
+        <v>1820</v>
+      </c>
+      <c r="L34">
+        <v>1683</v>
+      </c>
+      <c r="M34">
+        <v>1602</v>
+      </c>
+      <c r="N34">
+        <v>1672</v>
+      </c>
+      <c r="O34">
+        <v>1783</v>
+      </c>
+      <c r="P34">
+        <v>1808</v>
+      </c>
+      <c r="Q34">
+        <v>1777</v>
+      </c>
+      <c r="R34">
+        <v>1826</v>
+      </c>
+      <c r="S34">
+        <v>1581</v>
+      </c>
+      <c r="T34">
+        <v>1839</v>
+      </c>
+      <c r="U34">
+        <v>1629</v>
+      </c>
+      <c r="V34">
+        <v>1659</v>
+      </c>
+      <c r="W34">
+        <v>1593</v>
+      </c>
+      <c r="X34">
+        <v>1641</v>
+      </c>
+      <c r="Y34">
+        <v>1936</v>
+      </c>
+      <c r="Z34">
+        <v>1975</v>
+      </c>
+      <c r="AA34">
+        <v>1657</v>
+      </c>
+      <c r="AB34">
+        <v>1747</v>
+      </c>
+      <c r="AC34">
+        <v>1770</v>
+      </c>
+      <c r="AD34">
+        <v>1734</v>
+      </c>
+      <c r="AE34">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1441</v>
+      </c>
+      <c r="C35">
+        <v>1579</v>
+      </c>
+      <c r="D35">
+        <v>1489</v>
+      </c>
+      <c r="E35">
+        <v>1526</v>
+      </c>
+      <c r="F35">
+        <v>1539</v>
+      </c>
+      <c r="G35">
+        <v>1559</v>
+      </c>
+      <c r="H35">
+        <v>1611</v>
+      </c>
+      <c r="I35">
+        <v>1452</v>
+      </c>
+      <c r="J35">
+        <v>1431</v>
+      </c>
+      <c r="K35">
+        <v>1224</v>
+      </c>
+      <c r="L35">
+        <v>1339</v>
+      </c>
+      <c r="M35">
+        <v>1529</v>
+      </c>
+      <c r="N35">
+        <v>1603</v>
+      </c>
+      <c r="O35">
+        <v>1414</v>
+      </c>
+      <c r="P35">
+        <v>1738</v>
+      </c>
+      <c r="Q35">
+        <v>1364</v>
+      </c>
+      <c r="R35">
+        <v>1483</v>
+      </c>
+      <c r="S35">
+        <v>1647</v>
+      </c>
+      <c r="T35">
+        <v>1566</v>
+      </c>
+      <c r="U35">
+        <v>1581</v>
+      </c>
+      <c r="V35">
+        <v>1540</v>
+      </c>
+      <c r="W35">
+        <v>1491</v>
+      </c>
+      <c r="X35">
+        <v>1526</v>
+      </c>
+      <c r="Y35">
+        <v>1467</v>
+      </c>
+      <c r="Z35">
+        <v>1554</v>
+      </c>
+      <c r="AA35">
+        <v>1449</v>
+      </c>
+      <c r="AB35">
+        <v>1231</v>
+      </c>
+      <c r="AC35">
+        <v>1466</v>
+      </c>
+      <c r="AD35">
+        <v>1466</v>
+      </c>
+      <c r="AE35">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1350</v>
+      </c>
+      <c r="C36">
+        <v>1570</v>
+      </c>
+      <c r="D36">
+        <v>1267</v>
+      </c>
+      <c r="E36">
+        <v>1287</v>
+      </c>
+      <c r="F36">
+        <v>1839</v>
+      </c>
+      <c r="G36">
+        <v>1510</v>
+      </c>
+      <c r="H36">
+        <v>1562</v>
+      </c>
+      <c r="I36">
+        <v>1337</v>
+      </c>
+      <c r="J36">
+        <v>1388</v>
+      </c>
+      <c r="K36">
+        <v>1382</v>
+      </c>
+      <c r="L36">
+        <v>924</v>
+      </c>
+      <c r="M36">
+        <v>1448</v>
+      </c>
+      <c r="N36">
+        <v>1425</v>
+      </c>
+      <c r="O36">
+        <v>1181</v>
+      </c>
+      <c r="P36">
+        <v>1735</v>
+      </c>
+      <c r="Q36">
+        <v>1277</v>
+      </c>
+      <c r="R36">
+        <v>1411</v>
+      </c>
+      <c r="S36">
+        <v>1325</v>
+      </c>
+      <c r="T36">
+        <v>1241</v>
+      </c>
+      <c r="U36">
+        <v>1164</v>
+      </c>
+      <c r="V36">
+        <v>1400</v>
+      </c>
+      <c r="W36">
+        <v>1332</v>
+      </c>
+      <c r="X36">
+        <v>1419</v>
+      </c>
+      <c r="Y36">
+        <v>1397</v>
+      </c>
+      <c r="Z36">
+        <v>1138</v>
+      </c>
+      <c r="AA36">
+        <v>1251</v>
+      </c>
+      <c r="AB36">
+        <v>1222</v>
+      </c>
+      <c r="AC36">
+        <v>1261</v>
+      </c>
+      <c r="AD36">
+        <v>1149</v>
+      </c>
+      <c r="AE36">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1584</v>
+      </c>
+      <c r="C37">
+        <v>1472</v>
+      </c>
+      <c r="D37">
+        <v>1579</v>
+      </c>
+      <c r="E37">
+        <v>1624</v>
+      </c>
+      <c r="F37">
+        <v>1729</v>
+      </c>
+      <c r="G37">
+        <v>1499</v>
+      </c>
+      <c r="H37">
+        <v>1911</v>
+      </c>
+      <c r="I37">
+        <v>1347</v>
+      </c>
+      <c r="J37">
+        <v>1580</v>
+      </c>
+      <c r="K37">
+        <v>1192</v>
+      </c>
+      <c r="L37">
+        <v>1356</v>
+      </c>
+      <c r="M37">
+        <v>1753</v>
+      </c>
+      <c r="N37">
+        <v>1827</v>
+      </c>
+      <c r="O37">
+        <v>1519</v>
+      </c>
+      <c r="P37">
+        <v>1985</v>
+      </c>
+      <c r="Q37">
+        <v>1510</v>
+      </c>
+      <c r="R37">
+        <v>1705</v>
+      </c>
+      <c r="S37">
+        <v>1660</v>
+      </c>
+      <c r="T37">
+        <v>1714</v>
+      </c>
+      <c r="U37">
+        <v>1581</v>
+      </c>
+      <c r="V37">
+        <v>1798</v>
+      </c>
+      <c r="W37">
+        <v>1566</v>
+      </c>
+      <c r="X37">
+        <v>1759</v>
+      </c>
+      <c r="Y37">
+        <v>1580</v>
+      </c>
+      <c r="Z37">
+        <v>1444</v>
+      </c>
+      <c r="AA37">
+        <v>1428</v>
+      </c>
+      <c r="AB37">
+        <v>1377</v>
+      </c>
+      <c r="AC37">
+        <v>1601</v>
+      </c>
+      <c r="AD37">
+        <v>1587</v>
+      </c>
+      <c r="AE37">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1266</v>
+      </c>
+      <c r="C38">
+        <v>1922</v>
+      </c>
+      <c r="D38">
+        <v>1064</v>
+      </c>
+      <c r="E38">
+        <v>1154</v>
+      </c>
+      <c r="F38">
+        <v>1794</v>
+      </c>
+      <c r="G38">
+        <v>1775</v>
+      </c>
+      <c r="H38">
+        <v>966</v>
+      </c>
+      <c r="I38">
+        <v>1493</v>
+      </c>
+      <c r="J38">
+        <v>1189</v>
+      </c>
+      <c r="K38">
+        <v>1542</v>
+      </c>
+      <c r="L38">
+        <v>1111</v>
+      </c>
+      <c r="M38">
+        <v>935</v>
+      </c>
+      <c r="N38">
+        <v>875</v>
+      </c>
+      <c r="O38">
+        <v>1097</v>
+      </c>
+      <c r="P38">
+        <v>1170</v>
+      </c>
+      <c r="Q38">
+        <v>1190</v>
+      </c>
+      <c r="R38">
+        <v>1127</v>
+      </c>
+      <c r="S38">
+        <v>1003</v>
+      </c>
+      <c r="T38">
+        <v>941</v>
+      </c>
+      <c r="U38">
+        <v>1031</v>
+      </c>
+      <c r="V38">
+        <v>988</v>
+      </c>
+      <c r="W38">
+        <v>1147</v>
+      </c>
+      <c r="X38">
+        <v>966</v>
+      </c>
+      <c r="Y38">
+        <v>1358</v>
+      </c>
+      <c r="Z38">
+        <v>1276</v>
+      </c>
+      <c r="AA38">
+        <v>1250</v>
+      </c>
+      <c r="AB38">
+        <v>1193</v>
+      </c>
+      <c r="AC38">
+        <v>1079</v>
+      </c>
+      <c r="AD38">
+        <v>1003</v>
+      </c>
+      <c r="AE38">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1641</v>
+      </c>
+      <c r="C39">
+        <v>1691</v>
+      </c>
+      <c r="D39">
+        <v>1253</v>
+      </c>
+      <c r="E39">
+        <v>1324</v>
+      </c>
+      <c r="F39">
+        <v>1716</v>
+      </c>
+      <c r="G39">
+        <v>1626</v>
+      </c>
+      <c r="H39">
+        <v>1544</v>
+      </c>
+      <c r="I39">
+        <v>1499</v>
+      </c>
+      <c r="J39">
+        <v>1448</v>
+      </c>
+      <c r="K39">
+        <v>1506</v>
+      </c>
+      <c r="L39">
+        <v>1477</v>
+      </c>
+      <c r="M39">
+        <v>1389</v>
+      </c>
+      <c r="N39">
+        <v>1444</v>
+      </c>
+      <c r="O39">
+        <v>1421</v>
+      </c>
+      <c r="P39">
+        <v>1605</v>
+      </c>
+      <c r="Q39">
+        <v>1465</v>
+      </c>
+      <c r="R39">
+        <v>1353</v>
+      </c>
+      <c r="S39">
+        <v>1368</v>
+      </c>
+      <c r="T39">
+        <v>1443</v>
+      </c>
+      <c r="U39">
+        <v>1258</v>
+      </c>
+      <c r="V39">
+        <v>1450</v>
+      </c>
+      <c r="W39">
+        <v>1199</v>
+      </c>
+      <c r="X39">
+        <v>1427</v>
+      </c>
+      <c r="Y39">
+        <v>1526</v>
+      </c>
+      <c r="Z39">
+        <v>1820</v>
+      </c>
+      <c r="AA39">
+        <v>1292</v>
+      </c>
+      <c r="AB39">
+        <v>1461</v>
+      </c>
+      <c r="AC39">
+        <v>1561</v>
+      </c>
+      <c r="AD39">
+        <v>1330</v>
+      </c>
+      <c r="AE39">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1270</v>
+      </c>
+      <c r="C40">
+        <v>1739</v>
+      </c>
+      <c r="D40">
+        <v>874</v>
+      </c>
+      <c r="E40">
+        <v>924</v>
+      </c>
+      <c r="F40">
+        <v>1818</v>
+      </c>
+      <c r="G40">
+        <v>1539</v>
+      </c>
+      <c r="H40">
+        <v>1184</v>
+      </c>
+      <c r="I40">
+        <v>1482</v>
+      </c>
+      <c r="J40">
+        <v>989</v>
+      </c>
+      <c r="K40">
+        <v>1340</v>
+      </c>
+      <c r="L40">
+        <v>919</v>
+      </c>
+      <c r="M40">
+        <v>1112</v>
+      </c>
+      <c r="N40">
+        <v>1061</v>
+      </c>
+      <c r="O40">
+        <v>805</v>
+      </c>
+      <c r="P40">
+        <v>1256</v>
+      </c>
+      <c r="Q40">
+        <v>990</v>
+      </c>
+      <c r="R40">
+        <v>982</v>
+      </c>
+      <c r="S40">
+        <v>990</v>
+      </c>
+      <c r="T40">
+        <v>962</v>
+      </c>
+      <c r="U40">
+        <v>1045</v>
+      </c>
+      <c r="V40">
+        <v>1007</v>
+      </c>
+      <c r="W40">
+        <v>1108</v>
+      </c>
+      <c r="X40">
+        <v>1126</v>
+      </c>
+      <c r="Y40">
+        <v>1029</v>
+      </c>
+      <c r="Z40">
+        <v>1157</v>
+      </c>
+      <c r="AA40">
+        <v>1193</v>
+      </c>
+      <c r="AB40">
+        <v>841</v>
+      </c>
+      <c r="AC40">
+        <v>1263</v>
+      </c>
+      <c r="AD40">
+        <v>1025</v>
+      </c>
+      <c r="AE40">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1598</v>
+      </c>
+      <c r="C41">
+        <v>1699</v>
+      </c>
+      <c r="D41">
+        <v>1305</v>
+      </c>
+      <c r="E41">
+        <v>1268</v>
+      </c>
+      <c r="F41">
+        <v>1501</v>
+      </c>
+      <c r="G41">
+        <v>1680</v>
+      </c>
+      <c r="H41">
+        <v>1477</v>
+      </c>
+      <c r="I41">
+        <v>1378</v>
+      </c>
+      <c r="J41">
+        <v>1349</v>
+      </c>
+      <c r="K41">
+        <v>1189</v>
+      </c>
+      <c r="L41">
+        <v>1296</v>
+      </c>
+      <c r="M41">
+        <v>1442</v>
+      </c>
+      <c r="N41">
+        <v>1353</v>
+      </c>
+      <c r="O41">
+        <v>1331</v>
+      </c>
+      <c r="P41">
+        <v>1602</v>
+      </c>
+      <c r="Q41">
+        <v>1303</v>
+      </c>
+      <c r="R41">
+        <v>1305</v>
+      </c>
+      <c r="S41">
+        <v>1473</v>
+      </c>
+      <c r="T41">
+        <v>1317</v>
+      </c>
+      <c r="U41">
+        <v>1413</v>
+      </c>
+      <c r="V41">
+        <v>1333</v>
+      </c>
+      <c r="W41">
+        <v>1411</v>
+      </c>
+      <c r="X41">
+        <v>1447</v>
+      </c>
+      <c r="Y41">
+        <v>1244</v>
+      </c>
+      <c r="Z41">
+        <v>1375</v>
+      </c>
+      <c r="AA41">
+        <v>1416</v>
+      </c>
+      <c r="AB41">
+        <v>1329</v>
+      </c>
+      <c r="AC41">
+        <v>1495</v>
+      </c>
+      <c r="AD41">
+        <v>1280</v>
+      </c>
+      <c r="AE41">
+        <v>1396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/greyscale_hash_code.xlsx
+++ b/greyscale_hash_code.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fluky\Desktop\New folder (2)\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>average</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +65,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +151,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Y49" sqref="Y49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -437,8 +462,11 @@
       <c r="AE1">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,8 +560,12 @@
       <c r="AE2">
         <v>397</v>
       </c>
+      <c r="AF2">
+        <f>AVERAGE(B2:AE2)</f>
+        <v>918.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -627,8 +659,12 @@
       <c r="AE3">
         <v>1437</v>
       </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF41" si="0">AVERAGE(B3:AE3)</f>
+        <v>1398.1666666666667</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -722,8 +758,12 @@
       <c r="AE4">
         <v>1114</v>
       </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>1151.6666666666667</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -817,8 +857,12 @@
       <c r="AE5">
         <v>594</v>
       </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>1062.7333333333333</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -912,8 +956,12 @@
       <c r="AE6">
         <v>646</v>
       </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>1128.0333333333333</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1007,8 +1055,12 @@
       <c r="AE7">
         <v>785</v>
       </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>1124.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1102,8 +1154,12 @@
       <c r="AE8">
         <v>1085</v>
       </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>1226.5666666666666</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1197,8 +1253,12 @@
       <c r="AE9">
         <v>1303</v>
       </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>1289</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1292,8 +1352,12 @@
       <c r="AE10">
         <v>870</v>
       </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>1132.9000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1387,8 +1451,12 @@
       <c r="AE11">
         <v>773</v>
       </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>1048.0999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1482,8 +1550,12 @@
       <c r="AE12">
         <v>534</v>
       </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>982.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1577,8 +1649,12 @@
       <c r="AE13">
         <v>1498</v>
       </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>1427.4333333333334</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1672,8 +1748,12 @@
       <c r="AE14">
         <v>1308</v>
       </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>1239.3666666666666</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1767,8 +1847,12 @@
       <c r="AE15">
         <v>735</v>
       </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>1141.2333333333333</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1862,8 +1946,12 @@
       <c r="AE16">
         <v>836</v>
       </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>1217.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1957,8 +2045,12 @@
       <c r="AE17">
         <v>553</v>
       </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>917.5333333333333</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2052,8 +2144,12 @@
       <c r="AE18">
         <v>1599</v>
       </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>1575.0333333333333</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2147,8 +2243,12 @@
       <c r="AE19">
         <v>1351</v>
       </c>
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>1349.2666666666667</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2242,8 +2342,12 @@
       <c r="AE20">
         <v>857</v>
       </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>1203.2333333333333</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2337,8 +2441,12 @@
       <c r="AE21">
         <v>1189</v>
       </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>1350.7666666666667</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2432,8 +2540,12 @@
       <c r="AE22">
         <v>1436</v>
       </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>1401.7666666666667</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2527,8 +2639,12 @@
       <c r="AE23">
         <v>1114</v>
       </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>1150.5999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2622,8 +2738,12 @@
       <c r="AE24">
         <v>595</v>
       </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>1063.2666666666667</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2717,8 +2837,12 @@
       <c r="AE25">
         <v>812</v>
       </c>
+      <c r="AF25">
+        <f t="shared" si="0"/>
+        <v>1138.0333333333333</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2812,8 +2936,12 @@
       <c r="AE26">
         <v>609</v>
       </c>
+      <c r="AF26">
+        <f t="shared" si="0"/>
+        <v>1118.5666666666666</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2907,8 +3035,12 @@
       <c r="AE27">
         <v>1092</v>
       </c>
+      <c r="AF27">
+        <f t="shared" si="0"/>
+        <v>1232.9333333333334</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3002,8 +3134,12 @@
       <c r="AE28">
         <v>1288</v>
       </c>
+      <c r="AF28">
+        <f t="shared" si="0"/>
+        <v>1278.6333333333334</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3097,8 +3233,12 @@
       <c r="AE29">
         <v>860</v>
       </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>1130.8666666666666</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3192,8 +3332,12 @@
       <c r="AE30">
         <v>772</v>
       </c>
+      <c r="AF30">
+        <f t="shared" si="0"/>
+        <v>1049.7333333333333</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3287,8 +3431,12 @@
       <c r="AE31">
         <v>400</v>
       </c>
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>919.33333333333337</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3382,8 +3530,12 @@
       <c r="AE32">
         <v>1654</v>
       </c>
+      <c r="AF32">
+        <f t="shared" si="0"/>
+        <v>1705.3</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3477,8 +3629,12 @@
       <c r="AE33">
         <v>804</v>
       </c>
+      <c r="AF33">
+        <f t="shared" si="0"/>
+        <v>1123.5333333333333</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3572,8 +3728,12 @@
       <c r="AE34">
         <v>1671</v>
       </c>
+      <c r="AF34">
+        <f t="shared" si="0"/>
+        <v>1733.2666666666667</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3667,8 +3827,12 @@
       <c r="AE35">
         <v>1557</v>
       </c>
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>1495.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3762,8 +3926,12 @@
       <c r="AE36">
         <v>1500</v>
       </c>
+      <c r="AF36">
+        <f t="shared" si="0"/>
+        <v>1356.4</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3857,8 +4025,12 @@
       <c r="AE37">
         <v>1713</v>
       </c>
+      <c r="AF37">
+        <f t="shared" si="0"/>
+        <v>1599.3333333333333</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3952,8 +4124,12 @@
       <c r="AE38">
         <v>1071</v>
       </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>1199.2</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4047,8 +4223,12 @@
       <c r="AE39">
         <v>1383</v>
       </c>
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4142,8 +4322,12 @@
       <c r="AE40">
         <v>1002</v>
       </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>1134.4000000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4236,6 +4420,10 @@
       </c>
       <c r="AE41">
         <v>1396</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>1400.1666666666667</v>
       </c>
     </row>
   </sheetData>
